--- a/Documents/Deliverable_6/CSwap_Deliverable_6_SprintBacklog.xlsx
+++ b/Documents/Deliverable_6/CSwap_Deliverable_6_SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ced1\Documents\GitHub\COS420_Project\Documents\Deliverable_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7BB11D-93C5-4585-A041-9998A050BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D31F9C-9C91-4AD3-8E11-B5E3846E4D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21345" yWindow="1305" windowWidth="14640" windowHeight="7950" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sprint_Backlog_3" sheetId="3" r:id="rId4"/>
     <sheet name="Sprint_Backlog_4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint_Backlog_5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint_Backlog_6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,14 +34,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhrIMTCdqdCSnicGfR0Ek4mKVKPZg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhrIMTCdqdCSnicGfR0Ek4mKVKPZg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -205,13 +206,25 @@
   </si>
   <si>
     <t>Remove Listing</t>
+  </si>
+  <si>
+    <t>Message  system</t>
+  </si>
+  <si>
+    <t>As an authorized user I want to be able to remove a listing so that I can remove items from sale.</t>
+  </si>
+  <si>
+    <t>As an authorized user I want to see how many views my listing has so that I can determine if I want to keep it up.</t>
+  </si>
+  <si>
+    <t>View Counter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +281,20 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -322,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,11 +455,257 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1276,9 +1549,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sprint 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
-      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="firstRowStripe" dxfId="57"/>
+      <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1310,68 +1583,85 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17A0F2AD-416E-42BD-9586-963D4ED1B45F}" name="Table_13" displayName="Table_13" ref="A1:I6" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17A0F2AD-416E-42BD-9586-963D4ED1B45F}" name="Table_13" displayName="Table_13" ref="A1:I6" dataDxfId="55">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EEB20F0C-EDBF-41E9-8288-40113A66CDDC}" name="ID" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{ACAACE92-CA15-4EB6-8B7E-8345E1780447}" name="User Story" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{63747FA4-1B1C-42E2-85C3-91722F730D8D}" name="Story Tasks" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{06938DF0-26C0-4913-ACB7-6F61732EB5B6}" name="Sprint Number" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{5CD9845E-CBB7-47DD-97DB-1FB20717DCEB}" name="Sprint Goal" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{E61CFD6A-8D41-4BF1-8D41-A3EE845F3843}" name="Story Type" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{AB8AB67F-6072-476C-840B-D21D859FF7E0}" name="Story Points" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{69A0E7B1-8172-4457-B40B-53DFB3C88CB6}" name="Story Points Completed" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{ABEEE2B5-4BED-464B-B759-86F48A45DFC1}" name="Names and Contribution Percentage" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{EEB20F0C-EDBF-41E9-8288-40113A66CDDC}" name="ID" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{ACAACE92-CA15-4EB6-8B7E-8345E1780447}" name="User Story" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{63747FA4-1B1C-42E2-85C3-91722F730D8D}" name="Story Tasks" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{06938DF0-26C0-4913-ACB7-6F61732EB5B6}" name="Sprint Number" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{5CD9845E-CBB7-47DD-97DB-1FB20717DCEB}" name="Sprint Goal" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{E61CFD6A-8D41-4BF1-8D41-A3EE845F3843}" name="Story Type" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{AB8AB67F-6072-476C-840B-D21D859FF7E0}" name="Story Points" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{69A0E7B1-8172-4457-B40B-53DFB3C88CB6}" name="Story Points Completed" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{ABEEE2B5-4BED-464B-B759-86F48A45DFC1}" name="Names and Contribution Percentage" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9ECFD424-8CF1-42FB-8D5F-DD95CE605177}" name="Table_15" displayName="Table_15" ref="A1:I3" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9ECFD424-8CF1-42FB-8D5F-DD95CE605177}" name="Table_15" displayName="Table_15" ref="A1:I3" dataDxfId="45">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0C90C078-C054-4227-9091-C28BAFE691AF}" name="ID" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{9F8707D6-34E3-4CEF-B0F1-DAD2AD71531B}" name="User Story" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{AE0C2CB6-5018-4C2F-A209-C5487CF2A08A}" name="Story Tasks" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{679AF5F3-ABDC-491D-B0C6-8362005452C8}" name="Sprint Number" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{581162C1-539F-476A-91CE-4B78BE14DBBE}" name="Sprint Goal" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{E4DFD532-2531-4750-B4F1-447592E45CF2}" name="Story Type" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{BC181D14-6E45-478C-90E5-C3965ADAC5E4}" name="Story Points" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{EEBADD8E-3942-4D72-951B-EF543FFAC689}" name="Story Points Completed" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{9F380ECF-B1CB-4A49-83EB-D3FE6546460F}" name="Names and Contribution Percentage" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{0C90C078-C054-4227-9091-C28BAFE691AF}" name="ID" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{9F8707D6-34E3-4CEF-B0F1-DAD2AD71531B}" name="User Story" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{AE0C2CB6-5018-4C2F-A209-C5487CF2A08A}" name="Story Tasks" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{679AF5F3-ABDC-491D-B0C6-8362005452C8}" name="Sprint Number" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{581162C1-539F-476A-91CE-4B78BE14DBBE}" name="Sprint Goal" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{E4DFD532-2531-4750-B4F1-447592E45CF2}" name="Story Type" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{BC181D14-6E45-478C-90E5-C3965ADAC5E4}" name="Story Points" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{EEBADD8E-3942-4D72-951B-EF543FFAC689}" name="Story Points Completed" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{9F380ECF-B1CB-4A49-83EB-D3FE6546460F}" name="Names and Contribution Percentage" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4F1DBC7-2B2E-40E1-874A-10014A92AED4}" name="Table_134" displayName="Table_134" ref="A1:I6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4F1DBC7-2B2E-40E1-874A-10014A92AED4}" name="Table_134" displayName="Table_134" ref="A1:I6" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E798FD26-B955-48E1-9E08-1D60F4AC7B91}" name="ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{38487E82-5A8F-4410-A1A7-E5145186BAA4}" name="User Story" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{130F0886-29B4-46B7-9DE4-DD15E6247A13}" name="Story Tasks" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BAD90E50-4DD8-46A9-AFF1-DE051560D76B}" name="Sprint Number" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{566AEA22-C40C-4B94-98BC-BDB792DE7B91}" name="Sprint Goal" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{0805988D-7C69-4AEC-AF8D-25F2E60CF8EB}" name="Story Type" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{95A89966-30B5-4573-B4A0-86C2D8A2A6E4}" name="Story Points" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{3DD7EE3D-8F81-44FD-81E1-7BAD96DB9A98}" name="Story Points Completed" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{D3B4AAE1-CF4F-4133-9043-3844C41CAC77}" name="Names and Contribution Percentage" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{E798FD26-B955-48E1-9E08-1D60F4AC7B91}" name="ID" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{38487E82-5A8F-4410-A1A7-E5145186BAA4}" name="User Story" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{130F0886-29B4-46B7-9DE4-DD15E6247A13}" name="Story Tasks" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{BAD90E50-4DD8-46A9-AFF1-DE051560D76B}" name="Sprint Number" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{566AEA22-C40C-4B94-98BC-BDB792DE7B91}" name="Sprint Goal" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{0805988D-7C69-4AEC-AF8D-25F2E60CF8EB}" name="Story Type" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{95A89966-30B5-4573-B4A0-86C2D8A2A6E4}" name="Story Points" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{3DD7EE3D-8F81-44FD-81E1-7BAD96DB9A98}" name="Story Points Completed" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{D3B4AAE1-CF4F-4133-9043-3844C41CAC77}" name="Names and Contribution Percentage" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{800CF883-8DBA-7B46-9574-5D3205FF3580}" name="Table_1347" displayName="Table_1347" ref="A1:I6" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{800CF883-8DBA-7B46-9574-5D3205FF3580}" name="Table_1347" displayName="Table_1347" ref="A1:I6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1B78BACC-D4A0-9246-B678-56418D0FBA4A}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2A763180-633D-774F-8B47-77D24E069E69}" name="User Story" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{744EAAEC-68B4-534A-9207-A2A528D84F4F}" name="Story Tasks" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{3A0F339D-7750-CE4A-A628-1B4A8DBA657A}" name="Sprint Number" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{CF14FBB6-6396-714A-A3FF-21B93BED46CF}" name="Sprint Goal" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{52AE0326-AE4B-254E-A174-9D09375955D8}" name="Story Type" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C330B277-160E-B340-86B3-FBF025B6A871}" name="Story Points" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D6E92C1F-F8D7-E94D-B923-DF0B7ADB5867}" name="Story Points Completed" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{3C023834-BC69-E044-B892-585851368902}" name="Names and Contribution Percentage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1B78BACC-D4A0-9246-B678-56418D0FBA4A}" name="ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{2A763180-633D-774F-8B47-77D24E069E69}" name="User Story" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{744EAAEC-68B4-534A-9207-A2A528D84F4F}" name="Story Tasks" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{3A0F339D-7750-CE4A-A628-1B4A8DBA657A}" name="Sprint Number" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{CF14FBB6-6396-714A-A3FF-21B93BED46CF}" name="Sprint Goal" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{52AE0326-AE4B-254E-A174-9D09375955D8}" name="Story Type" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{C330B277-160E-B340-86B3-FBF025B6A871}" name="Story Points" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D6E92C1F-F8D7-E94D-B923-DF0B7ADB5867}" name="Story Points Completed" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{3C023834-BC69-E044-B892-585851368902}" name="Names and Contribution Percentage" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{19455EC4-C303-455E-A10D-3A69B984F547}" name="Table_13476" displayName="Table_13476" ref="A1:I5" headerRowDxfId="11" dataDxfId="0" totalsRowDxfId="10">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A604F399-BADA-40EA-A23F-6B92AD96D7D2}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FF340B20-ED2F-48C8-8B8F-86C98DCDD799}" name="User Story" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{0FE92118-5BDB-4A5D-B714-922C8FB02113}" name="Story Tasks" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5713807B-C1C5-45F6-BC31-EE8BCE1C3275}" name="Sprint Number" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{EE0FD040-14E7-403F-8F86-E03C7DF20C3E}" name="Sprint Goal" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5870C43B-46CB-4267-830E-A06B859D3BB8}" name="Story Type" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{DDC99AD0-F9B8-4AFC-BF50-564D6796B428}" name="Story Points" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{B29D4D62-3650-43E9-8FA2-28E2FE285238}" name="Story Points Completed" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{60C0B8C9-FB8C-4041-81B6-1C2922C3E08B}" name="Names and Contribution Percentage" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2431,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5D1F9-53DC-D94D-8761-6016B9CB4A26}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2628,4 +2918,178 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D247650A-4C4F-458D-A2B5-1CFCAA367876}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
+        <v>8</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="37">
+        <v>6</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="37">
+        <v>2</v>
+      </c>
+      <c r="H2" s="37">
+        <v>2</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>22</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="37">
+        <v>6</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="37">
+        <v>2</v>
+      </c>
+      <c r="H3" s="37">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>12</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="37">
+        <v>6</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>14</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="37">
+        <v>6</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documents/Deliverable_6/CSwap_Deliverable_6_SprintBacklog.xlsx
+++ b/Documents/Deliverable_6/CSwap_Deliverable_6_SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ced1\Documents\GitHub\COS420_Project\Documents\Deliverable_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D31F9C-9C91-4AD3-8E11-B5E3846E4D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC83FE0-9332-40D0-B395-AB2D2E04DDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21345" yWindow="1305" windowWidth="14640" windowHeight="7950" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="7755" windowWidth="14640" windowHeight="7950" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -479,20 +479,6 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
       <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -686,6 +672,20 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1651,17 +1651,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{19455EC4-C303-455E-A10D-3A69B984F547}" name="Table_13476" displayName="Table_13476" ref="A1:I5" headerRowDxfId="11" dataDxfId="0" totalsRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{19455EC4-C303-455E-A10D-3A69B984F547}" name="Table_13476" displayName="Table_13476" ref="A1:I5" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A604F399-BADA-40EA-A23F-6B92AD96D7D2}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FF340B20-ED2F-48C8-8B8F-86C98DCDD799}" name="User Story" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0FE92118-5BDB-4A5D-B714-922C8FB02113}" name="Story Tasks" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5713807B-C1C5-45F6-BC31-EE8BCE1C3275}" name="Sprint Number" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{EE0FD040-14E7-403F-8F86-E03C7DF20C3E}" name="Sprint Goal" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5870C43B-46CB-4267-830E-A06B859D3BB8}" name="Story Type" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{DDC99AD0-F9B8-4AFC-BF50-564D6796B428}" name="Story Points" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B29D4D62-3650-43E9-8FA2-28E2FE285238}" name="Story Points Completed" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{60C0B8C9-FB8C-4041-81B6-1C2922C3E08B}" name="Names and Contribution Percentage" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A604F399-BADA-40EA-A23F-6B92AD96D7D2}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FF340B20-ED2F-48C8-8B8F-86C98DCDD799}" name="User Story" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0FE92118-5BDB-4A5D-B714-922C8FB02113}" name="Story Tasks" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5713807B-C1C5-45F6-BC31-EE8BCE1C3275}" name="Sprint Number" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EE0FD040-14E7-403F-8F86-E03C7DF20C3E}" name="Sprint Goal" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5870C43B-46CB-4267-830E-A06B859D3BB8}" name="Story Type" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{DDC99AD0-F9B8-4AFC-BF50-564D6796B428}" name="Story Points" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B29D4D62-3650-43E9-8FA2-28E2FE285238}" name="Story Points Completed" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{60C0B8C9-FB8C-4041-81B6-1C2922C3E08B}" name="Names and Contribution Percentage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sprint 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2925,7 +2925,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2992,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="39" t="s">
         <v>41</v>
@@ -3021,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="39" t="s">
         <v>15</v>
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="37">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="I5" s="39" t="s">
         <v>17</v>
